--- a/other/CONTROL DE ERRORS.xlsx
+++ b/other/CONTROL DE ERRORS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T420\Desktop\UBIQUM\3 IOT ANALYTICS\3 Evaluate Techniques for Wifi Locationing\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29E7947-DF36-43D5-B070-DDA58608EEE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9399D0D9-DA9C-4C65-8AF3-7BF450527154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="33">
   <si>
     <t>ACCURACY</t>
   </si>
@@ -112,14 +112,26 @@
     <t>XGB</t>
   </si>
   <si>
-    <t>KNN 1</t>
+    <t>KNN 4</t>
+  </si>
+  <si>
+    <t>KNN 10</t>
+  </si>
+  <si>
+    <t>KNN 6</t>
+  </si>
+  <si>
+    <t>KNN 5</t>
+  </si>
+  <si>
+    <t>GBM X 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -150,15 +162,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -376,12 +379,6 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,17 +444,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -853,246 +858,246 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>536</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>96.64</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>4.41</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>4.97</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>307</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>84.69</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>8.67</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>8.0299999999999994</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>268</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>94.77</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>7.83</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>8.98</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <f>SUMPRODUCT(D6:D8,$C$6:$C$8)/SUM($C$6:$C$8)</f>
         <v>92.886795679567953</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9">
         <f>SUMPRODUCT(F6:F8,$C$6:$C$8)/SUM($C$6:$C$8)</f>
         <v>6.4121422142214231</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
         <f>SUMPRODUCT(H6:H8,$C$6:$C$8)/SUM($C$6:$C$8)</f>
         <v>6.782871287128712</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>536</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>96.64</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>4.41</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>4.97</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>307</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>88.27</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>8.67</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>8.0299999999999994</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>268</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>94.02</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>8.2200000000000006</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>8.98</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="9">
         <f>SUMPRODUCT(D13:D15,$C$6:$C$8)/SUM($C$6:$C$8)</f>
         <v>93.695130513051296</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
         <f>SUMPRODUCT(F13:F15,$C$6:$C$8)/SUM($C$6:$C$8)</f>
         <v>6.5062196219621971</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
         <f>SUMPRODUCT(H13:H15,$C$6:$C$8)/SUM($C$6:$C$8)</f>
         <v>6.782871287128712</v>
       </c>
@@ -1115,1249 +1120,1219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:U41"/>
+  <dimension ref="B2:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="12" width="2.85546875" customWidth="1"/>
     <col min="21" max="21" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="14"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="4" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="18"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="16"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="18"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="16"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="35"/>
+      <c r="I5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="1" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
+      <c r="R5" s="35"/>
+      <c r="S5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="18"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="16"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>536</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>95.71</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3">
         <v>5.51</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3">
         <v>4.92</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="4" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>536</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="3">
         <v>96.45</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="5">
+      <c r="P6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="3">
         <v>5.55</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="5">
+      <c r="S6" s="3">
         <v>4.45</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U6" s="18"/>
+      <c r="U6" s="16"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="17"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>307</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>82.73</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>10.18</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5">
         <v>9.77</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="4" t="s">
+      <c r="J7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <v>307</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <v>82.08</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" s="7">
+      <c r="P7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="5">
         <v>8.6</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" s="7">
+      <c r="R7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="5">
         <v>8.85</v>
       </c>
-      <c r="T7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="18"/>
+      <c r="T7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="16"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>268</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>91.79</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>11.19</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7">
         <v>8.01</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="4" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <v>268</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
         <v>94.4</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="9">
+      <c r="P8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="7">
         <v>10.17</v>
       </c>
-      <c r="R8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" s="9">
+      <c r="R8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" s="7">
         <v>7.75</v>
       </c>
-      <c r="T8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U8" s="18"/>
+      <c r="T8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="16"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="22">
+      <c r="D9" s="2"/>
+      <c r="E9" s="20">
         <f>SUMPRODUCT(E6:E8,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>91.177668766876693</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20">
         <f>SUMPRODUCT(G6:G8,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>8.1706030603060302</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22">
+      <c r="H9" s="20"/>
+      <c r="I9" s="20">
         <f>SUMPRODUCT(I6:I8,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>7.005571557155716</v>
       </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="4" t="s">
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="11">
+      <c r="N9" s="2"/>
+      <c r="O9" s="9">
         <f>SUMPRODUCT(O6:O8,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>91.984662466246633</v>
       </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22">
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20">
         <f>SUMPRODUCT(Q6:Q8,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>7.5072547254725466</v>
       </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22">
+      <c r="R9" s="20"/>
+      <c r="S9" s="20">
         <f>SUMPRODUCT(S6:S8,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>6.4618811881188112</v>
       </c>
-      <c r="T9" s="19"/>
-      <c r="U9" s="18"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="16"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="24"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="16"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="17"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="36"/>
+      <c r="G12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="4" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="2" t="s">
+      <c r="N12" s="2"/>
+      <c r="O12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2" t="s">
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="18"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="16"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="16"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="17"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="1" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1" t="s">
+      <c r="R14" s="35"/>
+      <c r="S14" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="18"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="16"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="17"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>536</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
         <v>96.64</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="27">
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="25">
         <v>5.18</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3">
         <v>4.9800000000000004</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="4" t="s">
+      <c r="J15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <v>536</v>
       </c>
-      <c r="O15" s="5">
+      <c r="O15" s="3">
         <v>96.08</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="P15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="3">
         <v>5.29</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="27">
+      <c r="S15" s="25">
         <v>4.43</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="U15" s="18"/>
+      <c r="U15" s="16"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="17"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>307</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>81.12</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>9.6199999999999992</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5">
         <v>9.39</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="18"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="4" t="s">
+      <c r="J16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>307</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="5">
         <v>82.08</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="7">
+      <c r="P16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="R16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S16" s="20">
+      <c r="R16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="18">
         <v>8.68</v>
       </c>
-      <c r="T16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="18"/>
+      <c r="T16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="16"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="17"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>268</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <v>93.28</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="7">
         <v>10.49</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="H17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="7">
         <v>7.85</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="4" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <v>268</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="7">
         <v>94.03</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="P17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="Q17" s="7">
         <v>10.24</v>
       </c>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="7">
         <v>7.33</v>
       </c>
-      <c r="T17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="U17" s="18"/>
+      <c r="T17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="U17" s="16"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="22">
+      <c r="D18" s="2"/>
+      <c r="E18" s="20">
         <f>SUMPRODUCT(E15:E17,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>91.540882088208832</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
         <f>SUMPRODUCT(G15:G17,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>7.6877947794779473</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20">
         <f>SUMPRODUCT(I15:I17,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>6.8909180918091808</v>
       </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="4" t="s">
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="22">
+      <c r="N18" s="2"/>
+      <c r="O18" s="20">
         <f>SUMPRODUCT(O15:O17,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>91.716903690369051</v>
       </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22">
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20">
         <f>SUMPRODUCT(Q15:Q17,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>7.5645004500450046</v>
       </c>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22">
+      <c r="R18" s="20"/>
+      <c r="S18" s="20">
         <f>SUMPRODUCT(S15:S17,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>6.3039423942394244</v>
       </c>
-      <c r="T18" s="19"/>
-      <c r="U18" s="18"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="16"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="26"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="24"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="14"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="4" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="2" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="18"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="16"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="18"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="16"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="1" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="1" t="s">
+      <c r="J23" s="35"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1" t="s">
+      <c r="R23" s="35"/>
+      <c r="S23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="18"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="16"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="17"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>536</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="25">
         <v>96.64</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="3">
         <v>5.49</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="3">
         <v>4.63</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="18"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="4" t="s">
+      <c r="K24" s="16"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="2">
         <v>536</v>
       </c>
-      <c r="O24" s="27">
+      <c r="O24" s="25">
         <v>97.01</v>
       </c>
-      <c r="P24" s="6" t="s">
+      <c r="P24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="Q24" s="25">
         <v>5.17</v>
       </c>
-      <c r="R24" s="6" t="s">
+      <c r="R24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="27">
+      <c r="S24" s="25">
         <v>4.43</v>
       </c>
-      <c r="T24" s="6" t="s">
+      <c r="T24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="U24" s="18"/>
+      <c r="U24" s="16"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="17"/>
-      <c r="C25" s="4" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>307</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>77.52</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>9.1</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
+      <c r="H25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="5">
         <v>8.68</v>
       </c>
-      <c r="J25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="18"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="4" t="s">
+      <c r="J25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="2">
         <v>307</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="18">
         <v>86.32</v>
       </c>
-      <c r="P25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q25" s="20">
+      <c r="P25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q25" s="18">
         <v>7.45</v>
       </c>
-      <c r="R25" s="8" t="s">
+      <c r="R25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="20">
+      <c r="S25" s="18">
         <v>8.6300000000000008</v>
       </c>
-      <c r="T25" s="8" t="s">
+      <c r="T25" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U25" s="18"/>
+      <c r="U25" s="16"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>268</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <v>93.28</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="7">
         <v>10.91</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="H26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="7">
         <v>8.4499999999999993</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K26" s="18"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="4" t="s">
+      <c r="K26" s="16"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="2">
         <v>268</v>
       </c>
-      <c r="O26" s="21">
+      <c r="O26" s="19">
         <v>94.77</v>
       </c>
-      <c r="P26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q26" s="21">
+      <c r="P26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="19">
         <v>8.84</v>
       </c>
-      <c r="R26" s="10" t="s">
+      <c r="R26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="19">
         <v>7.29</v>
       </c>
-      <c r="T26" s="10" t="s">
+      <c r="T26" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="U26" s="18"/>
+      <c r="U26" s="16"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="4" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="22">
+      <c r="D27" s="2"/>
+      <c r="E27" s="20">
         <f>SUMPRODUCT(E24:E26,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>90.54610261026103</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22">
+      <c r="F27" s="20"/>
+      <c r="G27" s="20">
         <f>SUMPRODUCT(G24:G26,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>7.7949774977497759</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20">
         <f>SUMPRODUCT(I24:I26,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>6.6706030603060293</v>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="4" t="s">
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="22">
+      <c r="N27" s="2"/>
+      <c r="O27" s="20">
         <f>SUMPRODUCT(O24:O26,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>93.515715571557166</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27" s="27">
         <f>SUMPRODUCT(Q24:Q26,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>6.6853195319531959</v>
       </c>
-      <c r="S27" s="29">
+      <c r="S27" s="27">
         <f>SUMPRODUCT(S24:S26,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>6.2804770477047711</v>
       </c>
-      <c r="U27" s="18"/>
+      <c r="U27" s="16"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="26"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="24"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L29" s="30"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="16"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="14"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L30" s="17"/>
-      <c r="M30" s="4" t="s">
+      <c r="L30" s="15"/>
+      <c r="M30" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="2" t="s">
+      <c r="N30" s="2"/>
+      <c r="O30" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2" t="s">
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="18"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="16"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L31" s="17"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="18"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="16"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="L32" s="17"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="1" t="s">
+      <c r="L32" s="15"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1" t="s">
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1" t="s">
+      <c r="R32" s="35"/>
+      <c r="S32" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="T32" s="1"/>
-      <c r="U32" s="18"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="16"/>
     </row>
     <row r="33" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L33" s="17"/>
-      <c r="M33" s="4" t="s">
+      <c r="L33" s="15"/>
+      <c r="M33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="2">
         <v>536</v>
       </c>
-      <c r="O33" s="27">
+      <c r="O33" s="25">
         <v>97.01</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q33" s="31">
-        <v>4.6399999999999997</v>
-      </c>
-      <c r="R33" s="6" t="s">
+      <c r="Q33" s="29">
+        <v>4.46</v>
+      </c>
+      <c r="R33" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="29">
+        <v>3.69</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33" s="16"/>
+    </row>
+    <row r="34" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L34" s="15"/>
+      <c r="M34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="2">
+        <v>307</v>
+      </c>
+      <c r="O34" s="10">
+        <v>88.27</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>7.22</v>
+      </c>
+      <c r="R34" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" s="31">
+        <v>7.47</v>
+      </c>
+      <c r="T34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="S33" s="31">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="T33" s="6" t="s">
+      <c r="U34" s="16"/>
+    </row>
+    <row r="35" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L35" s="15"/>
+      <c r="M35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N35" s="2">
+        <v>268</v>
+      </c>
+      <c r="O35" s="19">
+        <v>94.77</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q35" s="33">
+        <v>7.99</v>
+      </c>
+      <c r="R35" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="U33" s="18"/>
-    </row>
-    <row r="34" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L34" s="17"/>
-      <c r="M34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N34" s="4">
-        <v>307</v>
-      </c>
-      <c r="O34" s="12">
-        <v>88.27</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" s="35">
-        <v>8.39</v>
-      </c>
-      <c r="R34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="S34" s="33">
-        <v>7.78</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="U34" s="18"/>
-    </row>
-    <row r="35" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L35" s="17"/>
-      <c r="M35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N35" s="4">
-        <v>268</v>
-      </c>
-      <c r="O35" s="21">
-        <v>94.77</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q35" s="32">
-        <v>8.66</v>
-      </c>
-      <c r="R35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="S35" s="36">
-        <v>7.43</v>
-      </c>
-      <c r="T35" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U35" s="18"/>
+      <c r="S35" s="33">
+        <v>6.92</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" s="16"/>
     </row>
     <row r="36" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L36" s="17"/>
-      <c r="M36" s="4" t="s">
+      <c r="L36" s="15"/>
+      <c r="M36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N36" s="4"/>
-      <c r="O36" s="29">
+      <c r="N36" s="2"/>
+      <c r="O36" s="27">
         <f>SUMPRODUCT(O33:O35,$D$6:$D$8)/SUM($D$6:$D$8)</f>
         <v>94.05455445544554</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="Q36" s="27">
         <f>SUMPRODUCT(Q33:Q35,$D$6:$D$8)/SUM($D$6:$D$8)</f>
-        <v>6.6459495949594967</v>
-      </c>
-      <c r="S36" s="29">
+        <v>6.0741854185418545</v>
+      </c>
+      <c r="S36" s="27">
         <f>SUMPRODUCT(S33:S35,$D$6:$D$8)/SUM($D$6:$D$8)</f>
-        <v>5.9635823582358238</v>
-      </c>
-      <c r="U36" s="18"/>
+        <v>5.5136723672367243</v>
+      </c>
+      <c r="U36" s="16"/>
     </row>
     <row r="37" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="L37" s="23"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="26"/>
-    </row>
-    <row r="39" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="Q39" s="34">
-        <f t="shared" ref="Q39:S39" si="0">Q24-Q33</f>
-        <v>0.53000000000000025</v>
-      </c>
-      <c r="S39" s="34">
-        <f t="shared" si="0"/>
-        <v>0.23999999999999932</v>
-      </c>
-    </row>
-    <row r="40" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="Q40">
-        <f t="shared" ref="Q40:S40" si="1">Q25-Q34</f>
-        <v>-0.94000000000000039</v>
-      </c>
-      <c r="S40" s="34">
-        <f t="shared" si="1"/>
-        <v>0.85000000000000053</v>
-      </c>
-    </row>
-    <row r="41" spans="12:21" x14ac:dyDescent="0.25">
-      <c r="Q41" s="34">
-        <f t="shared" ref="Q40:S41" si="2">Q26-Q35</f>
-        <v>0.17999999999999972</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="2"/>
-        <v>-0.13999999999999968</v>
-      </c>
+      <c r="L37" s="21"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="35">
